--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adam12-Itga9.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adam12-Itga9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Itga9</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>53.5565813421834</v>
+        <v>2.912067666666667</v>
       </c>
       <c r="H2">
-        <v>53.5565813421834</v>
+        <v>8.736203</v>
       </c>
       <c r="I2">
-        <v>0.9653807418730574</v>
+        <v>0.04936487121546265</v>
       </c>
       <c r="J2">
-        <v>0.9653807418730574</v>
+        <v>0.04936487121546266</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.89596538705681</v>
+        <v>2.237200333333333</v>
       </c>
       <c r="N2">
-        <v>1.89596538705681</v>
+        <v>6.711601</v>
       </c>
       <c r="O2">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="P2">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="Q2">
-        <v>101.5414244738723</v>
+        <v>6.514878754555889</v>
       </c>
       <c r="R2">
-        <v>101.5414244738723</v>
+        <v>58.63390879100299</v>
       </c>
       <c r="S2">
-        <v>0.1003069069512714</v>
+        <v>0.00553405349572496</v>
       </c>
       <c r="T2">
-        <v>0.1003069069512714</v>
+        <v>0.005534053495724961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>53.5565813421834</v>
+        <v>2.912067666666667</v>
       </c>
       <c r="H3">
-        <v>53.5565813421834</v>
+        <v>8.736203</v>
       </c>
       <c r="I3">
-        <v>0.9653807418730574</v>
+        <v>0.04936487121546265</v>
       </c>
       <c r="J3">
-        <v>0.9653807418730574</v>
+        <v>0.04936487121546266</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.15277672525489</v>
+        <v>3.153682</v>
       </c>
       <c r="N3">
-        <v>3.15277672525489</v>
+        <v>9.461046</v>
       </c>
       <c r="O3">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="P3">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="Q3">
-        <v>168.8519431398561</v>
+        <v>9.183735383148667</v>
       </c>
       <c r="R3">
-        <v>168.8519431398561</v>
+        <v>82.65361844833799</v>
       </c>
       <c r="S3">
-        <v>0.1667990796547177</v>
+        <v>0.007801109554861</v>
       </c>
       <c r="T3">
-        <v>0.1667990796547177</v>
+        <v>0.007801109554861002</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>53.5565813421834</v>
+        <v>2.912067666666667</v>
       </c>
       <c r="H4">
-        <v>53.5565813421834</v>
+        <v>8.736203</v>
       </c>
       <c r="I4">
-        <v>0.9653807418730574</v>
+        <v>0.04936487121546265</v>
       </c>
       <c r="J4">
-        <v>0.9653807418730574</v>
+        <v>0.04936487121546266</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.6574161676494</v>
+        <v>13.44189533333333</v>
       </c>
       <c r="N4">
-        <v>12.6574161676494</v>
+        <v>40.325686</v>
       </c>
       <c r="O4">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="P4">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="Q4">
-        <v>677.8879385645823</v>
+        <v>39.14370877891756</v>
       </c>
       <c r="R4">
-        <v>677.8879385645823</v>
+        <v>352.293379010258</v>
       </c>
       <c r="S4">
-        <v>0.6696463313303537</v>
+        <v>0.0332505617625075</v>
       </c>
       <c r="T4">
-        <v>0.6696463313303537</v>
+        <v>0.03325056176250751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>53.5565813421834</v>
+        <v>2.912067666666667</v>
       </c>
       <c r="H5">
-        <v>53.5565813421834</v>
+        <v>8.736203</v>
       </c>
       <c r="I5">
-        <v>0.9653807418730574</v>
+        <v>0.04936487121546265</v>
       </c>
       <c r="J5">
-        <v>0.9653807418730574</v>
+        <v>0.04936487121546266</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.541124260728804</v>
+        <v>1.123499666666667</v>
       </c>
       <c r="N5">
-        <v>0.541124260728804</v>
+        <v>3.370499</v>
       </c>
       <c r="O5">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="P5">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="Q5">
-        <v>28.98076548595105</v>
+        <v>3.271707052810778</v>
       </c>
       <c r="R5">
-        <v>28.98076548595105</v>
+        <v>29.445363475297</v>
       </c>
       <c r="S5">
-        <v>0.02862842393671467</v>
+        <v>0.002779146402369193</v>
       </c>
       <c r="T5">
-        <v>0.02862842393671467</v>
+        <v>0.002779146402369194</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.92057810298172</v>
+        <v>54.02320233333333</v>
       </c>
       <c r="H6">
-        <v>1.92057810298172</v>
+        <v>162.069607</v>
       </c>
       <c r="I6">
-        <v>0.03461925812694255</v>
+        <v>0.9157920526223629</v>
       </c>
       <c r="J6">
-        <v>0.03461925812694255</v>
+        <v>0.915792052622363</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.89596538705681</v>
+        <v>2.237200333333333</v>
       </c>
       <c r="N6">
-        <v>1.89596538705681</v>
+        <v>6.711601</v>
       </c>
       <c r="O6">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="P6">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="Q6">
-        <v>3.641349606392571</v>
+        <v>120.8607262678674</v>
       </c>
       <c r="R6">
-        <v>3.641349606392571</v>
+        <v>1087.746536410807</v>
       </c>
       <c r="S6">
-        <v>0.003597078906840153</v>
+        <v>0.1026649535466518</v>
       </c>
       <c r="T6">
-        <v>0.003597078906840153</v>
+        <v>0.1026649535466519</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.92057810298172</v>
+        <v>54.02320233333333</v>
       </c>
       <c r="H7">
-        <v>1.92057810298172</v>
+        <v>162.069607</v>
       </c>
       <c r="I7">
-        <v>0.03461925812694255</v>
+        <v>0.9157920526223629</v>
       </c>
       <c r="J7">
-        <v>0.03461925812694255</v>
+        <v>0.915792052622363</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.15277672525489</v>
+        <v>3.153682</v>
       </c>
       <c r="N7">
-        <v>3.15277672525489</v>
+        <v>9.461046</v>
       </c>
       <c r="O7">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="P7">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="Q7">
-        <v>6.055153942114957</v>
+        <v>170.3720007809913</v>
       </c>
       <c r="R7">
-        <v>6.055153942114957</v>
+        <v>1533.348007028922</v>
       </c>
       <c r="S7">
-        <v>0.005981536758957258</v>
+        <v>0.1447222276909393</v>
       </c>
       <c r="T7">
-        <v>0.005981536758957258</v>
+        <v>0.1447222276909394</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.92057810298172</v>
+        <v>54.02320233333333</v>
       </c>
       <c r="H8">
-        <v>1.92057810298172</v>
+        <v>162.069607</v>
       </c>
       <c r="I8">
-        <v>0.03461925812694255</v>
+        <v>0.9157920526223629</v>
       </c>
       <c r="J8">
-        <v>0.03461925812694255</v>
+        <v>0.915792052622363</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.6574161676494</v>
+        <v>13.44189533333333</v>
       </c>
       <c r="N8">
-        <v>12.6574161676494</v>
+        <v>40.325686</v>
       </c>
       <c r="O8">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="P8">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="Q8">
-        <v>24.30955633191424</v>
+        <v>726.1742313361558</v>
       </c>
       <c r="R8">
-        <v>24.30955633191424</v>
+        <v>6535.568082025402</v>
       </c>
       <c r="S8">
-        <v>0.0240140062801605</v>
+        <v>0.6168475569282007</v>
       </c>
       <c r="T8">
-        <v>0.0240140062801605</v>
+        <v>0.6168475569282007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>54.02320233333333</v>
+      </c>
+      <c r="H9">
+        <v>162.069607</v>
+      </c>
+      <c r="I9">
+        <v>0.9157920526223629</v>
+      </c>
+      <c r="J9">
+        <v>0.915792052622363</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.123499666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.370499</v>
+      </c>
+      <c r="O9">
+        <v>0.05629805839539345</v>
+      </c>
+      <c r="P9">
+        <v>0.05629805839539345</v>
+      </c>
+      <c r="Q9">
+        <v>60.69504981376589</v>
+      </c>
+      <c r="R9">
+        <v>546.255448323893</v>
+      </c>
+      <c r="S9">
+        <v>0.05155731445657101</v>
+      </c>
+      <c r="T9">
+        <v>0.05155731445657102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.04379166666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.131375</v>
+      </c>
+      <c r="I10">
+        <v>0.0007423488162914034</v>
+      </c>
+      <c r="J10">
+        <v>0.0007423488162914035</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.237200333333333</v>
+      </c>
+      <c r="N10">
+        <v>6.711601</v>
+      </c>
+      <c r="O10">
+        <v>0.1121050933480713</v>
+      </c>
+      <c r="P10">
+        <v>0.1121050933480713</v>
+      </c>
+      <c r="Q10">
+        <v>0.0979707312638889</v>
+      </c>
+      <c r="R10">
+        <v>0.8817365813750001</v>
+      </c>
+      <c r="S10">
+        <v>8.322108334717803E-05</v>
+      </c>
+      <c r="T10">
+        <v>8.322108334717804E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.04379166666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.131375</v>
+      </c>
+      <c r="I11">
+        <v>0.0007423488162914034</v>
+      </c>
+      <c r="J11">
+        <v>0.0007423488162914035</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.153682</v>
+      </c>
+      <c r="N11">
+        <v>9.461046</v>
+      </c>
+      <c r="O11">
+        <v>0.158029573718759</v>
+      </c>
+      <c r="P11">
+        <v>0.158029573718759</v>
+      </c>
+      <c r="Q11">
+        <v>0.1381049909166667</v>
+      </c>
+      <c r="R11">
+        <v>1.24294491825</v>
+      </c>
+      <c r="S11">
+        <v>0.0001173130669891558</v>
+      </c>
+      <c r="T11">
+        <v>0.0001173130669891558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.04379166666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.131375</v>
+      </c>
+      <c r="I12">
+        <v>0.0007423488162914034</v>
+      </c>
+      <c r="J12">
+        <v>0.0007423488162914035</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>13.44189533333333</v>
+      </c>
+      <c r="N12">
+        <v>40.325686</v>
+      </c>
+      <c r="O12">
+        <v>0.6735672745377762</v>
+      </c>
+      <c r="P12">
+        <v>0.6735672745377762</v>
+      </c>
+      <c r="Q12">
+        <v>0.5886429998055557</v>
+      </c>
+      <c r="R12">
+        <v>5.297786998250001</v>
+      </c>
+      <c r="S12">
+        <v>0.0005000218689457449</v>
+      </c>
+      <c r="T12">
+        <v>0.000500021868945745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.04379166666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.131375</v>
+      </c>
+      <c r="I13">
+        <v>0.0007423488162914034</v>
+      </c>
+      <c r="J13">
+        <v>0.0007423488162914035</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.123499666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.370499</v>
+      </c>
+      <c r="O13">
+        <v>0.05629805839539345</v>
+      </c>
+      <c r="P13">
+        <v>0.05629805839539345</v>
+      </c>
+      <c r="Q13">
+        <v>0.04919992290277779</v>
+      </c>
+      <c r="R13">
+        <v>0.4427993061250001</v>
+      </c>
+      <c r="S13">
+        <v>4.179279700932463E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.179279700932464E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.011625333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.034876000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.03410072734588315</v>
+      </c>
+      <c r="J14">
+        <v>0.03410072734588315</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.237200333333333</v>
+      </c>
+      <c r="N14">
+        <v>6.711601</v>
+      </c>
+      <c r="O14">
+        <v>0.1121050933480713</v>
+      </c>
+      <c r="P14">
+        <v>0.1121050933480713</v>
+      </c>
+      <c r="Q14">
+        <v>4.500408866275111</v>
+      </c>
+      <c r="R14">
+        <v>40.50367979647601</v>
+      </c>
+      <c r="S14">
+        <v>0.003822865222347359</v>
+      </c>
+      <c r="T14">
+        <v>0.003822865222347359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.92057810298172</v>
-      </c>
-      <c r="H9">
-        <v>1.92057810298172</v>
-      </c>
-      <c r="I9">
-        <v>0.03461925812694255</v>
-      </c>
-      <c r="J9">
-        <v>0.03461925812694255</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.541124260728804</v>
-      </c>
-      <c r="N9">
-        <v>0.541124260728804</v>
-      </c>
-      <c r="O9">
-        <v>0.0296550601176993</v>
-      </c>
-      <c r="P9">
-        <v>0.0296550601176993</v>
-      </c>
-      <c r="Q9">
-        <v>1.039271406147912</v>
-      </c>
-      <c r="R9">
-        <v>1.039271406147912</v>
-      </c>
-      <c r="S9">
-        <v>0.001026636180984631</v>
-      </c>
-      <c r="T9">
-        <v>0.001026636180984631</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.011625333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.034876000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.03410072734588315</v>
+      </c>
+      <c r="J15">
+        <v>0.03410072734588315</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.153682</v>
+      </c>
+      <c r="N15">
+        <v>9.461046</v>
+      </c>
+      <c r="O15">
+        <v>0.158029573718759</v>
+      </c>
+      <c r="P15">
+        <v>0.158029573718759</v>
+      </c>
+      <c r="Q15">
+        <v>6.344026604477333</v>
+      </c>
+      <c r="R15">
+        <v>57.096239440296</v>
+      </c>
+      <c r="S15">
+        <v>0.005388923405969541</v>
+      </c>
+      <c r="T15">
+        <v>0.005388923405969544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.011625333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.034876000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.03410072734588315</v>
+      </c>
+      <c r="J16">
+        <v>0.03410072734588315</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.44189533333333</v>
+      </c>
+      <c r="N16">
+        <v>40.325686</v>
+      </c>
+      <c r="O16">
+        <v>0.6735672745377762</v>
+      </c>
+      <c r="P16">
+        <v>0.6735672745377762</v>
+      </c>
+      <c r="Q16">
+        <v>27.04005718054845</v>
+      </c>
+      <c r="R16">
+        <v>243.3605146249361</v>
+      </c>
+      <c r="S16">
+        <v>0.02296913397812233</v>
+      </c>
+      <c r="T16">
+        <v>0.02296913397812233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.011625333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.034876000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.03410072734588315</v>
+      </c>
+      <c r="J17">
+        <v>0.03410072734588315</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.123499666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.370499</v>
+      </c>
+      <c r="O17">
+        <v>0.05629805839539345</v>
+      </c>
+      <c r="P17">
+        <v>0.05629805839539345</v>
+      </c>
+      <c r="Q17">
+        <v>2.260060391458222</v>
+      </c>
+      <c r="R17">
+        <v>20.340543523124</v>
+      </c>
+      <c r="S17">
+        <v>0.00191980473944392</v>
+      </c>
+      <c r="T17">
+        <v>0.00191980473944392</v>
       </c>
     </row>
   </sheetData>
